--- a/data-modeling/src/test/resources/data-dict-v2-hive.xlsx
+++ b/data-modeling/src/test/resources/data-dict-v2-hive.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173" count="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="174" count="174">
   <si>
     <t>source_connection</t>
   </si>
@@ -591,6 +591,9 @@
   </si>
   <si>
     <t>product_version='v1'</t>
+  </si>
+  <si>
+    <t>student_age&lt;30</t>
   </si>
 </sst>
 </file>
@@ -1184,11 +1187,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="J1" zoomScale="150">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomLeft" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" defaultColWidth="14"/>
@@ -1314,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="L3" s="10" t="s">
         <v>137</v>
@@ -1412,7 +1415,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK970"/>
+  <dimension ref="A1:AL970"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="159">
       <pane ySplit="1" topLeftCell="A16" state="frozen" activePane="bottomLeft"/>
@@ -6810,7 +6813,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AD24"/>
+  <dimension ref="A1:AE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" state="frozen" activePane="bottomLeft"/>
